--- a/file.xlsx
+++ b/file.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -19,121 +19,92 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t xml:space="preserve">   54564 02/08/2023   1 RUSSKAYA TRANSPORTNAYA        
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>CUSTOMER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUSSKAYA TRANSPORTNAYA
 KOMPANIYA LLC - IP LIZORKINA  
 5th DONSKOY PASSAGE, 21B P10  
 00000 119334 MOSCOW                    </t>
   </si>
   <si>
-    <t xml:space="preserve">   54564 02/08/2023   2 RUSSKAYA TRANSPORTNAYA        
-KOMPANIYA LLC - IP LIZORKINA  
-5th DONSKOY PASSAGE, 21B P10  
-00000 119334 MOSCOW                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   54564 02/08/2023   3 RUSSKAYA TRANSPORTNAYA        
-KOMPANIYA LLC - IP LIZORKINA  
-5th DONSKOY PASSAGE, 21B P10  
-00000 119334 MOSCOW                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   54565 02/08/2023   1 RUSSKAYA TRANSPORTNAYA        
-KOMPANIYA LLC - IP LIZORKINA  
-5th DONSKOY PASSAGE, 21B P10  
-00000 119334 MOSCOW                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   54565 02/08/2023   2 RUSSKAYA TRANSPORTNAYA        
-KOMPANIYA LLC - IP LIZORKINA  
-5th DONSKOY PASSAGE, 21B P10  
-00000 119334 MOSCOW                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   54565 02/08/2023   3 RUSSKAYA TRANSPORTNAYA        
-KOMPANIYA LLC - IP LIZORKINA  
-5th DONSKOY PASSAGE, 21B P10  
-00000 119334 MOSCOW                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   54565 02/08/2023   4 RUSSKAYA TRANSPORTNAYA        
-KOMPANIYA LLC - IP LIZORKINA  
-5th DONSKOY PASSAGE, 21B P10  
-00000 119334 MOSCOW                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   54565 02/08/2023   5 RUSSKAYA TRANSPORTNAYA        
-KOMPANIYA LLC - IP LIZORKINA  
-5th DONSKOY PASSAGE, 21B P10  
-00000 119334 MOSCOW                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   54565 02/08/2023   6 RUSSKAYA TRANSPORTNAYA        
-KOMPANIYA LLC - IP LIZORKINA  
-5th DONSKOY PASSAGE, 21B P10  
-00000 119334 MOSCOW                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   54565 02/08/2023   7 RUSSKAYA TRANSPORTNAYA        
-KOMPANIYA LLC - IP LIZORKINA  
-5th DONSKOY PASSAGE, 21B P10  
-00000 119334 MOSCOW                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   54565 02/08/2023   8 RUSSKAYA TRANSPORTNAYA        
-KOMPANIYA LLC - IP LIZORKINA  
-5th DONSKOY PASSAGE, 21B P10  
-00000 119334 MOSCOW                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   54565 02/08/2023   9 RUSSKAYA TRANSPORTNAYA        
-KOMPANIYA LLC - IP LIZORKINA  
-5th DONSKOY PASSAGE, 21B P10  
-00000 119334 MOSCOW                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   54566 02/08/2023   1 RUSSKAYA TRANSPORTNAYA        
-KOMPANIYA LLC -BIANCO BOUTIQUE 
-5th DONSKOY PASSAGE, 21B P10  
-00000 119334 MOSCOW                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   54566 02/08/2023   2 RUSSKAYA TRANSPORTNAYA        
-KOMPANIYA LLC -BIANCO BOUTIQUE 
-5th DONSKOY PASSAGE, 21B P10  
-00000 119334 MOSCOW                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   54566 02/08/2023   3 RUSSKAYA TRANSPORTNAYA        
-KOMPANIYA LLC -BIANCO BOUTIQUE 
-5th DONSKOY PASSAGE, 21B P10  
-00000 119334 MOSCOW                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   54566 02/08/2023   4 RUSSKAYA TRANSPORTNAYA        
-KOMPANIYA LLC -BIANCO BOUTIQUE 
-5th DONSKOY PASSAGE, 21B P10  
-00000 119334 MOSCOW                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   54566 02/08/2023   5 RUSSKAYA TRANSPORTNAYA        
-KOMPANIYA LLC -BIANCO BOUTIQUE 
-5th DONSKOY PASSAGE, 21B P10  
-00000 119334 MOSCOW                    </t>
+    <t>Cust Code</t>
+  </si>
+  <si>
+    <t>VAT NO</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>RUSSL</t>
+  </si>
+  <si>
+    <t>773001001</t>
+  </si>
+  <si>
+    <t>54564</t>
+  </si>
+  <si>
+    <t>02/08/2023</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ITEM Code</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>SIZE</t>
+  </si>
+  <si>
+    <t>U.M</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>UNIT PRICE</t>
+  </si>
+  <si>
+    <t>DISC</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>C.I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,9 +129,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -463,97 +432,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A15:A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="F5" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/file.xlsx
+++ b/file.xlsx
@@ -1,115 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Program\Progekt\Exel-pdf\PDFToExcel(Example) (2)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6600"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6600" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>CUSTOMER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUSSKAYA TRANSPORTNAYA
-KOMPANIYA LLC - IP LIZORKINA  
-5th DONSKOY PASSAGE, 21B P10  
-00000 119334 MOSCOW                    </t>
-  </si>
-  <si>
-    <t>Cust Code</t>
-  </si>
-  <si>
-    <t>VAT NO</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t>RUSSL</t>
-  </si>
-  <si>
-    <t>773001001</t>
-  </si>
-  <si>
-    <t>54564</t>
-  </si>
-  <si>
-    <t>02/08/2023</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>ITEM Code</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>SIZE</t>
-  </si>
-  <si>
-    <t>U.M</t>
-  </si>
-  <si>
-    <t>QTY</t>
-  </si>
-  <si>
-    <t>UNIT PRICE</t>
-  </si>
-  <si>
-    <t>DISC</t>
-  </si>
-  <si>
-    <t>VALUE</t>
-  </si>
-  <si>
-    <t>C.I</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -128,22 +49,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -431,88 +411,895 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K15" sqref="A1:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>20</v>
-      </c>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CUSTOMER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RUSSKAYA TRANSPORTNAYA
+KOMPANIYA LLC - IP LIZORKINA  
+5th DONSKOY PASSAGE, 21B P10  
+00000 119334 MOSCOW                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Cust Code</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>VAT NO</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>Page</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RUSSL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>773001001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>54564</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>02/08/2023</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>ITEM Code</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>DESCRIPTION</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr"/>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>SIZE</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>U.M</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>QTY</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>UNIT PRICE</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>DISC</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>VALUE</t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>C.I</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>M6392</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ASCOT NERO-SENZA ETICHETTA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64039998</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>177,00</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 100% CALF LEATHER LINING: 85% LAMB LEATHER 15% GOAT LEATHER</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>6  4 039998</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>LADIES BOOTS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>M6393</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ASCOT NERO</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 95% CALF LEATHER 5% PL LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>M6550</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NAPPA/RANCH NERO</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>209,00</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER: 5% PL 3% CO 5% CALF LEATHER 85% LAMB LEATHER 2% AC LINING: 80% LAMB LEATHER 20% GOAT</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>M6553</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TEBE MORO+M.NERO</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER: 95% BUFFALO LEATHER 5% PL LINING: 100% WOOLLEN SHEEPSKIN</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>M6560</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GOTEBORG NERO</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>191,00</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER: 5% PL 65% CALF LEATHER 21% PU 5% PES 4% COT LINING:90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>M6562</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>GAUCHO NERO</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER:  95% CALF LEATHER 5 % PL LINING: 80% LAMB LEATHER 20% GOAT LEATHER</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>M6563</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GAUCHO/NYAP NERO</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>211,00</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER:5% PL 65% CALF LEATHER 29% PA 1% PU LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>M6563</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TEBE CUOIO/NYAP NERO</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>211,00</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER: 5% PL 65% BUFFALO LEATHER 29% PA 1% PU LINING 90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>M6577</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>BUTTERFLY NERO</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>225,00</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>S E G U E</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -16,13 +16,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -48,9 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -416,16 +424,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="A1:K15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>CUSTOMER</t>
         </is>
@@ -442,27 +450,27 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Cust Code</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>VAT NO</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>Page</t>
         </is>
@@ -496,48 +504,48 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>ITEM Code</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr"/>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>SIZE</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>U.M</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>QTY</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>UNIT PRICE</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>DISC</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>VALUE</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>C.I</t>
         </is>
@@ -554,8 +562,6 @@
           <t>ASCOT NERO-SENZA ETICHETTA</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>64039998</t>
@@ -581,7 +587,6 @@
           <t>177,00</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -589,18 +594,8 @@
           <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 100% CALF LEATHER LINING: 85% LAMB LEATHER 15% GOAT LEATHER</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
           <t>Country of origin: ITALY</t>
@@ -621,27 +616,13 @@
           <t>6  4 039998</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
           <t>LADIES BOOTS</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -654,8 +635,6 @@
           <t>ASCOT NERO</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>64039118</t>
@@ -681,7 +660,6 @@
           <t>199,00</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -689,18 +667,8 @@
           <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 95% CALF LEATHER 5% PL LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
           <t>Country of origin: ITALY</t>
@@ -721,11 +689,6 @@
           <t>6  4 039118</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -738,8 +701,6 @@
           <t>NAPPA/RANCH NERO</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>64039118</t>
@@ -765,7 +726,6 @@
           <t>209,00</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -773,18 +733,8 @@
           <t>SOLE: 100% RUBBER UPPER: 5% PL 3% CO 5% CALF LEATHER 85% LAMB LEATHER 2% AC LINING: 80% LAMB LEATHER 20% GOAT</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
           <t>Country of origin: ITALY</t>
@@ -805,11 +755,6 @@
           <t>6  4 039118</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -822,8 +767,6 @@
           <t>TEBE MORO+M.NERO</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>64039118</t>
@@ -849,7 +792,6 @@
           <t>199,00</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -857,18 +799,8 @@
           <t>SOLE: 100% RUBBER UPPER: 95% BUFFALO LEATHER 5% PL LINING: 100% WOOLLEN SHEEPSKIN</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
           <t>Country of origin: ITALY</t>
@@ -889,11 +821,6 @@
           <t>6  4 039118</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -906,8 +833,6 @@
           <t>GOTEBORG NERO</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>64039118</t>
@@ -933,7 +858,6 @@
           <t>191,00</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -941,18 +865,8 @@
           <t>SOLE: 100% RUBBER UPPER: 5% PL 65% CALF LEATHER 21% PU 5% PES 4% COT LINING:90% LAMB LEATHER 10% GOAT LEATHER</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
           <t>Country of origin: ITALY</t>
@@ -973,11 +887,6 @@
           <t>6  4 039118</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -990,8 +899,6 @@
           <t>GAUCHO NERO</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>64039118</t>
@@ -1017,7 +924,6 @@
           <t>199,00</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1025,18 +931,8 @@
           <t>SOLE: 100% RUBBER UPPER:  95% CALF LEATHER 5 % PL LINING: 80% LAMB LEATHER 20% GOAT LEATHER</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
           <t>Country of origin: ITALY</t>
@@ -1057,11 +953,6 @@
           <t>6  4 039118</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1074,8 +965,6 @@
           <t>GAUCHO/NYAP NERO</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>64039118</t>
@@ -1101,7 +990,6 @@
           <t>211,00</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1109,18 +997,8 @@
           <t>SOLE: 100% RUBBER UPPER:5% PL 65% CALF LEATHER 29% PA 1% PU LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
           <t>Country of origin: ITALY</t>
@@ -1141,11 +1019,6 @@
           <t>6  4 039118</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1158,8 +1031,6 @@
           <t>TEBE CUOIO/NYAP NERO</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>64039118</t>
@@ -1185,7 +1056,6 @@
           <t>211,00</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1193,18 +1063,8 @@
           <t>SOLE: 100% RUBBER UPPER: 5% PL 65% BUFFALO LEATHER 29% PA 1% PU LINING 90% LAMB LEATHER 10% GOAT LEATHER</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
           <t>Country of origin: ITALY</t>
@@ -1225,11 +1085,6 @@
           <t>6  4 039118</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1242,8 +1097,6 @@
           <t>BUTTERFLY NERO</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>64039118</t>
@@ -1269,37 +1122,3702 @@
           <t>225,00</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>-7</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
           <t>S E G U E</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CUSTOMER</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RUSSKAYA TRANSPORTNAYA
+KOMPANIYA LLC - IP LIZORKINA  
+5th DONSKOY PASSAGE, 21B P10  
+00000 119334 MOSCOW                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Cust Code</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>VAT NO</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Page</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>RUSSL</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>773001001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>54564</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>02/08/2023</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ITEM Code</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DESCRIPTION</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SIZE</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>U.M</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>QTY</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>UNIT PRICE</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>DISC</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>VALUE</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>C.I</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>M6392</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ASCOT NERO-SENZA ETICHETTA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>64039998</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>177,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 100% CALF LEATHER LINING: 85% LAMB LEATHER 15% GOAT LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>6  4 039998</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>LADIES BOOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>M6393</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASCOT NERO</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 95% CALF LEATHER 5% PL LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>M6550</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>NAPPA/RANCH NERO</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>209,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER: 5% PL 3% CO 5% CALF LEATHER 85% LAMB LEATHER 2% AC LINING: 80% LAMB LEATHER 20% GOAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>M6553</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TEBE MORO+M.NERO</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER: 95% BUFFALO LEATHER 5% PL LINING: 100% WOOLLEN SHEEPSKIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>M6560</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>GOTEBORG NERO</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>191,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER: 5% PL 65% CALF LEATHER 21% PU 5% PES 4% COT LINING:90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>M6562</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>GAUCHO NERO</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER:  95% CALF LEATHER 5 % PL LINING: 80% LAMB LEATHER 20% GOAT LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>M6563</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>GAUCHO/NYAP NERO</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>211,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER:5% PL 65% CALF LEATHER 29% PA 1% PU LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>M6563</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TEBE CUOIO/NYAP NERO</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>211,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER: 5% PL 65% BUFFALO LEATHER 29% PA 1% PU LINING 90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>M6577</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>BUTTERFLY NERO</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>225,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="J65" t="n">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>S E G U E</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>CUSTOMER</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RUSSKAYA TRANSPORTNAYA
+KOMPANIYA LLC - IP LIZORKINA  
+5th DONSKOY PASSAGE, 21B P10  
+00000 119334 MOSCOW                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Cust Code</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>VAT NO</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Page</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>RUSSL</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>773001001</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>54564</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>02/08/2023</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ITEM Code</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>DESCRIPTION</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>SIZE</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>U.M</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>QTY</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>UNIT PRICE</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>DISC</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>VALUE</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>C.I</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>M6392</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ASCOT NERO-SENZA ETICHETTA</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>64039998</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>177,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 100% CALF LEATHER LINING: 85% LAMB LEATHER 15% GOAT LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>6  4 039998</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>LADIES BOOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>M6393</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ASCOT NERO</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 95% CALF LEATHER 5% PL LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>M6550</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>NAPPA/RANCH NERO</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>209,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER: 5% PL 3% CO 5% CALF LEATHER 85% LAMB LEATHER 2% AC LINING: 80% LAMB LEATHER 20% GOAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>M6553</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>TEBE MORO+M.NERO</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER: 95% BUFFALO LEATHER 5% PL LINING: 100% WOOLLEN SHEEPSKIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>M6560</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>GOTEBORG NERO</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>191,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER: 5% PL 65% CALF LEATHER 21% PU 5% PES 4% COT LINING:90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>M6562</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>GAUCHO NERO</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER:  95% CALF LEATHER 5 % PL LINING: 80% LAMB LEATHER 20% GOAT LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>M6563</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>GAUCHO/NYAP NERO</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>211,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER:5% PL 65% CALF LEATHER 29% PA 1% PU LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>M6563</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>TEBE CUOIO/NYAP NERO</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>211,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER: 5% PL 65% BUFFALO LEATHER 29% PA 1% PU LINING 90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>M6577</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>BUTTERFLY NERO</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>225,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="J98" t="n">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>S E G U E</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>CUSTOMER</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RUSSKAYA TRANSPORTNAYA
+KOMPANIYA LLC - IP LIZORKINA  
+5th DONSKOY PASSAGE, 21B P10  
+00000 119334 MOSCOW                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Cust Code</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>VAT NO</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Page</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>RUSSL</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>773001001</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>54564</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>02/08/2023</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>ITEM Code</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>DESCRIPTION</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>SIZE</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>U.M</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>QTY</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>UNIT PRICE</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>DISC</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>VALUE</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>C.I</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>M6392</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ASCOT NERO-SENZA ETICHETTA</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>64039998</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>177,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 100% CALF LEATHER LINING: 85% LAMB LEATHER 15% GOAT LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>6  4 039998</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>LADIES BOOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>M6393</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ASCOT NERO</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 95% CALF LEATHER 5% PL LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>M6550</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>NAPPA/RANCH NERO</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>209,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER: 5% PL 3% CO 5% CALF LEATHER 85% LAMB LEATHER 2% AC LINING: 80% LAMB LEATHER 20% GOAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>M6553</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>TEBE MORO+M.NERO</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER: 95% BUFFALO LEATHER 5% PL LINING: 100% WOOLLEN SHEEPSKIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>M6560</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>GOTEBORG NERO</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>191,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER: 5% PL 65% CALF LEATHER 21% PU 5% PES 4% COT LINING:90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>M6562</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>GAUCHO NERO</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER:  95% CALF LEATHER 5 % PL LINING: 80% LAMB LEATHER 20% GOAT LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>M6563</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>GAUCHO/NYAP NERO</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>211,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER:5% PL 65% CALF LEATHER 29% PA 1% PU LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>M6563</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>TEBE CUOIO/NYAP NERO</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>211,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER: 5% PL 65% BUFFALO LEATHER 29% PA 1% PU LINING 90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>M6577</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>BUTTERFLY NERO</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>225,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="J131" t="n">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>S E G U E</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>CUSTOMER</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RUSSKAYA TRANSPORTNAYA
+KOMPANIYA LLC - IP LIZORKINA  
+5th DONSKOY PASSAGE, 21B P10  
+00000 119334 MOSCOW                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Cust Code</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>VAT NO</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Page</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>RUSSL</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>773001001</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>54564</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>02/08/2023</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>ITEM Code</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>DESCRIPTION</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>SIZE</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>U.M</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>QTY</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>UNIT PRICE</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>DISC</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>VALUE</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>C.I</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>M6392</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>ASCOT NERO-SENZA ETICHETTA</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>64039998</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>177,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 100% CALF LEATHER LINING: 85% LAMB LEATHER 15% GOAT LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>6  4 039998</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>LADIES BOOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>M6393</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ASCOT NERO</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 95% CALF LEATHER 5% PL LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>M6550</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>NAPPA/RANCH NERO</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>209,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER: 5% PL 3% CO 5% CALF LEATHER 85% LAMB LEATHER 2% AC LINING: 80% LAMB LEATHER 20% GOAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>M6553</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>TEBE MORO+M.NERO</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER: 95% BUFFALO LEATHER 5% PL LINING: 100% WOOLLEN SHEEPSKIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>M6560</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>GOTEBORG NERO</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>191,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER: 5% PL 65% CALF LEATHER 21% PU 5% PES 4% COT LINING:90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>M6562</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>GAUCHO NERO</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER:  95% CALF LEATHER 5 % PL LINING: 80% LAMB LEATHER 20% GOAT LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>M6563</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>GAUCHO/NYAP NERO</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>211,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER:5% PL 65% CALF LEATHER 29% PA 1% PU LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>M6563</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>TEBE CUOIO/NYAP NERO</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>211,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER: 5% PL 65% BUFFALO LEATHER 29% PA 1% PU LINING 90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>M6577</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>BUTTERFLY NERO</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>225,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="J164" t="n">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>S E G U E</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>CUSTOMER</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RUSSKAYA TRANSPORTNAYA
+KOMPANIYA LLC - IP LIZORKINA  
+5th DONSKOY PASSAGE, 21B P10  
+00000 119334 MOSCOW                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Cust Code</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>VAT NO</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Page</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>RUSSL</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>773001001</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>54564</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>02/08/2023</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>ITEM Code</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>DESCRIPTION</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>SIZE</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>U.M</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>QTY</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>UNIT PRICE</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>DISC</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>VALUE</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>C.I</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>M6392</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ASCOT NERO-SENZA ETICHETTA</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>64039998</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>177,00</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 100% CALF LEATHER LINING: 85% LAMB LEATHER 15% GOAT LEATHER</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr"/>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>6  4 039998</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr"/>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>LADIES BOOTS</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>M6393</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>ASCOT NERO</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 95% CALF LEATHER 5% PL LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr"/>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>M6550</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>NAPPA/RANCH NERO</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>209,00</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER: 5% PL 3% CO 5% CALF LEATHER 85% LAMB LEATHER 2% AC LINING: 80% LAMB LEATHER 20% GOAT</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr"/>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>M6553</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>TEBE MORO+M.NERO</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER: 95% BUFFALO LEATHER 5% PL LINING: 100% WOOLLEN SHEEPSKIN</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr"/>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>M6560</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>GOTEBORG NERO</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>191,00</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER: 5% PL 65% CALF LEATHER 21% PU 5% PES 4% COT LINING:90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr"/>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>M6562</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>GAUCHO NERO</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER:  95% CALF LEATHER 5 % PL LINING: 80% LAMB LEATHER 20% GOAT LEATHER</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr"/>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>M6563</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>GAUCHO/NYAP NERO</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>211,00</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER:5% PL 65% CALF LEATHER 29% PA 1% PU LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr"/>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>M6563</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>TEBE CUOIO/NYAP NERO</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>211,00</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER: 5% PL 65% BUFFALO LEATHER 29% PA 1% PU LINING 90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr"/>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Country of origin: ITALY</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>. S  :</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>6  4 039118</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>M6577</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>BUTTERFLY NERO</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>225,00</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr"/>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr"/>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>S E G U E</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -16,13 +16,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -48,9 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -416,16 +424,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="K40" sqref="A1:K40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>CUSTOMER</t>
         </is>
@@ -442,27 +450,27 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Cust Code</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>VAT NO</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>Page</t>
         </is>
@@ -496,48 +504,48 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>ITEM Code</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr"/>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>SIZE</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>U.M</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>QTY</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>UNIT PRICE</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>DISC</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>VALUE</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>C.I</t>
         </is>
@@ -554,8 +562,6 @@
           <t>ASCOT NERO-SENZA ETICHETTA</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>64039998</t>
@@ -581,7 +587,6 @@
           <t>177,00</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -589,26 +594,16 @@
           <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 100% CALF LEATHER LINING: 85% LAMB LEATHER 15% GOAT LEATHER</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Country of origin: ITALY</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>banana</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -621,27 +616,13 @@
           <t>6  4 039998</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
           <t>LADIES BOOTS</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -654,8 +635,6 @@
           <t>ASCOT NERO</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>64039118</t>
@@ -681,7 +660,6 @@
           <t>199,00</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -689,26 +667,16 @@
           <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 95% CALF LEATHER 5% PL LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Country of origin: ITALY</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>banana</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -721,11 +689,6 @@
           <t>6  4 039118</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -738,8 +701,6 @@
           <t>NAPPA/RANCH NERO</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>64039118</t>
@@ -765,7 +726,6 @@
           <t>209,00</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -773,26 +733,16 @@
           <t>SOLE: 100% RUBBER UPPER: 5% PL 3% CO 5% CALF LEATHER 85% LAMB LEATHER 2% AC LINING: 80% LAMB LEATHER 20% GOAT</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Country of origin: ITALY</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>banana</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -805,11 +755,6 @@
           <t>6  4 039118</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -822,8 +767,6 @@
           <t>TEBE MORO+M.NERO</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>64039118</t>
@@ -849,7 +792,6 @@
           <t>199,00</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -857,26 +799,16 @@
           <t>SOLE: 100% RUBBER UPPER: 95% BUFFALO LEATHER 5% PL LINING: 100% WOOLLEN SHEEPSKIN</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Country of origin: ITALY</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>banana</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -889,11 +821,6 @@
           <t>6  4 039118</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -906,8 +833,6 @@
           <t>GOTEBORG NERO</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>64039118</t>
@@ -933,7 +858,6 @@
           <t>191,00</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -941,26 +865,16 @@
           <t>SOLE: 100% RUBBER UPPER: 5% PL 65% CALF LEATHER 21% PU 5% PES 4% COT LINING:90% LAMB LEATHER 10% GOAT LEATHER</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Country of origin: ITALY</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>banana</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -973,11 +887,6 @@
           <t>6  4 039118</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -990,8 +899,6 @@
           <t>GAUCHO NERO</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>64039118</t>
@@ -1017,7 +924,6 @@
           <t>199,00</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1025,26 +931,16 @@
           <t>SOLE: 100% RUBBER UPPER:  95% CALF LEATHER 5 % PL LINING: 80% LAMB LEATHER 20% GOAT LEATHER</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Country of origin: ITALY</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>banana</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1057,11 +953,6 @@
           <t>6  4 039118</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1074,8 +965,6 @@
           <t>GAUCHO/NYAP NERO</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>64039118</t>
@@ -1101,7 +990,6 @@
           <t>211,00</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1109,26 +997,16 @@
           <t>SOLE: 100% RUBBER UPPER:5% PL 65% CALF LEATHER 29% PA 1% PU LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Country of origin: ITALY</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>banana</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1141,11 +1019,6 @@
           <t>6  4 039118</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1158,8 +1031,6 @@
           <t>TEBE CUOIO/NYAP NERO</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>64039118</t>
@@ -1185,7 +1056,6 @@
           <t>211,00</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1193,26 +1063,16 @@
           <t>SOLE: 100% RUBBER UPPER: 5% PL 65% BUFFALO LEATHER 29% PA 1% PU LINING 90% LAMB LEATHER 10% GOAT LEATHER</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Country of origin: ITALY</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>banana</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1225,11 +1085,6 @@
           <t>6  4 039118</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1242,8 +1097,6 @@
           <t>BUTTERFLY NERO</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>64039118</t>
@@ -1269,37 +1122,28 @@
           <t>225,00</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>-7</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
           <t>S E G U E</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RUSSKAYA TRANSPORTNAYA
+KOMPANIYA LLC - IP LIZORKINA  
+5th DONSKOY PASSAGE, 21B P10  
+00000 119334 MOSCOW                    </t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -424,10 +424,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -554,469 +554,406 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>M6392</t>
+          <t>M6315</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ASCOT NERO-SENZA ETICHETTA</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>64039998</t>
-        </is>
+          <t>64039198</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>34/44</t>
+          <t>245,00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>177,00</t>
-        </is>
+          <t>1.470,00</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 100% CALF LEATHER LINING: 85% LAMB LEATHER 15% GOAT LEATHER</t>
+          <t>SOLE: 100% RUBBER UPPER: 100% GOAT LEATHER LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
         </is>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>orange</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
           <t>banana</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>. S  :</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6  4 039998</t>
-        </is>
-      </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>M6392</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LADIES BOOTS</t>
-        </is>
+          <t>64039998</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>177,00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.416,00</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>M6393</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ASCOT NERO</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>64039118</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>34/44</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>199,00</t>
+          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 100% CALF LEATHER LINING: 85% LAMB LEATHER 15% GOAT LEATHER</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 95% CALF LEATHER 5% PL LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>banana</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>orange</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>banana</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>. S  :</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>6  4 039118</t>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LADIES BOOTS</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>M6550</t>
+          <t>M6393</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NAPPA/RANCH NERO</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
           <t>64039118</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>34/44</t>
+          <t>199,00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>209,00</t>
-        </is>
+          <t>1.990,00</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLE: 100% RUBBER UPPER: 5% PL 3% CO 5% CALF LEATHER 85% LAMB LEATHER 2% AC LINING: 80% LAMB LEATHER 20% GOAT</t>
+          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 95% CALF LEATHER 5% PL LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
         </is>
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>orange</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
           <t>banana</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>. S  :</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>6  4 039118</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>M6553</t>
+          <t>M6550</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TEBE MORO+M.NERO</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
           <t>64039118</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>6</v>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>34/44</t>
+          <t>209,00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>199,00</t>
-        </is>
+          <t>1.254,00</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLE: 100% RUBBER UPPER: 95% BUFFALO LEATHER 5% PL LINING: 100% WOOLLEN SHEEPSKIN</t>
+          <t>SOLE: 100% RUBBER UPPER: 5% PL 3% CO 5% CALF LEATHER 85% LAMB LEATHER 2% AC LINING: 80% LAMB LEATHER 20% GOAT LEATHER</t>
         </is>
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>orange</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
           <t>banana</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>. S  :</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>6  4 039118</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>M6560</t>
+          <t>M6553</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GOTEBORG NERO</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
           <t>64039118</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>34/44</t>
+          <t>199,00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>191,00</t>
-        </is>
+          <t>1.194,00</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLE: 100% RUBBER UPPER: 5% PL 65% CALF LEATHER 21% PU 5% PES 4% COT LINING:90% LAMB LEATHER 10% GOAT LEATHER</t>
+          <t>SOLE: 100% RUBBER UPPER: 95% BUFFALO LEATHER 5% PL LINING: 100% WOOLLEN SHEEPSKIN</t>
         </is>
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>orange</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
           <t>banana</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>. S  :</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>6  4 039118</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>M6562</t>
+          <t>M6560</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GAUCHO NERO</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
           <t>64039118</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>8</v>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>34/44</t>
+          <t>191,00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>199,00</t>
-        </is>
+          <t>1.528,00</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLE: 100% RUBBER UPPER:  95% CALF LEATHER 5 % PL LINING: 80% LAMB LEATHER 20% GOAT LEATHER</t>
+          <t>SOLE: 100% RUBBER UPPER: 5% PL 65% CALF LEATHER 21% PU 5% PES 4% COT LINING:90% LAMB LEATHER 10% GOAT LEATHER</t>
         </is>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>orange</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
           <t>banana</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>. S  :</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>6  4 039118</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>M6563</t>
+          <t>M6562</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GAUCHO/NYAP NERO</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
           <t>64039118</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>8</v>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>34/44</t>
+          <t>199,00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>211,00</t>
-        </is>
+          <t>1.592,00</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLE: 100% RUBBER UPPER:5% PL 65% CALF LEATHER 29% PA 1% PU LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
+          <t>SOLE: 100% RUBBER UPPER:  95% CALF LEATHER 5 % PL LINING: 80% LAMB LEATHER 20% GOAT LEATHER</t>
         </is>
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>orange</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
           <t>banana</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>. S  :</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>6  4 039118</t>
         </is>
       </c>
     </row>
@@ -1028,120 +965,154 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TEBE CUOIO/NYAP NERO</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
           <t>64039118</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>8</v>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>34/44</t>
+          <t>211,00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>211,00</t>
-        </is>
+          <t>1.688,00</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLE: 100% RUBBER UPPER: 5% PL 65% BUFFALO LEATHER 29% PA 1% PU LINING 90% LAMB LEATHER 10% GOAT LEATHER</t>
+          <t>SOLE: 100% RUBBER UPPER:5% PL 65% CALF LEATHER 29% PA 1% PU LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
         </is>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>orange</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
           <t>banana</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>. S  :</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>6  4 039118</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>M6577</t>
+          <t>M6563</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BUTTERFLY NERO</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
           <t>64039118</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>6</v>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>34/44</t>
+          <t>211,00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>225,00</t>
-        </is>
+          <t>1.266,00</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="32">
-      <c r="J32" t="n">
-        <v>-7</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SOLE: 100% RUBBER UPPER: 5% PL 65% BUFFALO LEATHER 29% PA 1% PU LINING 90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>S E G U E</t>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>banana</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">RUSSKAYA TRANSPORTNAYA
-KOMPANIYA LLC - IP LIZORKINA  
-5th DONSKOY PASSAGE, 21B P10  
-00000 119334 MOSCOW                    </t>
+          <t>M6577</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>64039118</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>225,00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2.250,00</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-7.306,43</t>
         </is>
       </c>
     </row>

--- a/file.xlsx
+++ b/file.xlsx
@@ -597,14 +597,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>orange</t>
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Country of origin:</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>banana</t>
+          <t xml:space="preserve"> ITALY</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>orange</t>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Country of origin:</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>banana</t>
+          <t xml:space="preserve"> ITALY</t>
         </is>
       </c>
     </row>
@@ -718,14 +718,14 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>orange</t>
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Country of origin:</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>banana</t>
+          <t xml:space="preserve"> ITALY</t>
         </is>
       </c>
     </row>
@@ -775,14 +775,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>orange</t>
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Country of origin:</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>banana</t>
+          <t xml:space="preserve"> ITALY</t>
         </is>
       </c>
     </row>
@@ -832,14 +832,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>orange</t>
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Country of origin:</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>banana</t>
+          <t xml:space="preserve"> ITALY</t>
         </is>
       </c>
     </row>
@@ -889,14 +889,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>orange</t>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Country of origin:</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>banana</t>
+          <t xml:space="preserve"> ITALY</t>
         </is>
       </c>
     </row>
@@ -946,14 +946,14 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>orange</t>
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Country of origin:</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>banana</t>
+          <t xml:space="preserve"> ITALY</t>
         </is>
       </c>
     </row>
@@ -1003,14 +1003,14 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>orange</t>
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Country of origin:</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>banana</t>
+          <t xml:space="preserve"> ITALY</t>
         </is>
       </c>
     </row>
@@ -1060,14 +1060,14 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>orange</t>
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Country of origin:</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>banana</t>
+          <t xml:space="preserve"> ITALY</t>
         </is>
       </c>
     </row>

--- a/file.xlsx
+++ b/file.xlsx
@@ -424,10 +424,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -499,7 +499,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -514,38 +514,33 @@
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr"/>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>SIZE</t>
+        </is>
+      </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>SIZE</t>
+          <t>U.M</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>U.M</t>
+          <t>QTY</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>QTY</t>
+          <t>UNIT PRICE</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>UNIT PRICE</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>DISC</t>
-        </is>
-      </c>
+          <t>VALUE</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr"/>
       <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>VALUE</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>C.I</t>
         </is>
@@ -554,102 +549,53 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>M6315</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>64039198</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>34/44</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>6</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>245,00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.470,00</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>80</v>
+          <t>SOLE: 60% TPU 40% CALF LEATHER UPPER: 100% CALF LEATHER LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>SOLE: 100% RUBBER UPPER: 100% GOAT LEATHER LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Country of origin:</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ITALY</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Country of origin:</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ITALY</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LADIES ANKLE BOOTS</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>M6392</t>
+          <t>M6592</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>64039998</t>
+          <t>GOTEBORG ROSA ANTICO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>34/44</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>8</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>177,00</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.416,00</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+          <t>942,00</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 100% CALF LEATHER LINING: 85% LAMB LEATHER 15% GOAT LEATHER</t>
+          <t>SOLE: 60% TPU 40% CALF LEATHER UPPER: 100% CALF  LEATHER LINING: 100% LAMB LEATHER</t>
         </is>
       </c>
     </row>
@@ -668,52 +614,34 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LADIES BOOTS</t>
+          <t>LADIES SHOES</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>M6393</t>
+          <t>M6621</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>64039118</t>
+          <t>GOMMALACCA NERO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>34/44</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>10</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>199,00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.990,00</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+          <t>1.910,00</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 95% CALF LEATHER 5% PL LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
+          <t>SOLE: 100% PU UPPER: 95% CALF LEATHER 5% PL LINING: 85% LAMB LEATHER 15% GOAT LEATHER</t>
         </is>
       </c>
     </row>
@@ -732,45 +660,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>M6550</t>
+          <t>M6628</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>64039118</t>
+          <t>CAMOSCIO CARAVAGGIO+M.NERO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>34/44</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>209,00</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1.254,00</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+          <t>1.158,00</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLE: 100% RUBBER UPPER: 5% PL 3% CO 5% CALF LEATHER 85% LAMB LEATHER 2% AC LINING: 80% LAMB LEATHER 20% GOAT LEATHER</t>
+          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 95% CALF LEATHER 5% PL LINING: 100% WOOLLEN SHEEPSKIN</t>
         </is>
       </c>
     </row>
@@ -789,328 +699,174 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>M6553</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>64039118</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>34/44</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>199,00</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>1.194,00</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>80</v>
+          <t>LADIES ANKLE BOOTS</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLE: 100% RUBBER UPPER: 95% BUFFALO LEATHER 5% PL LINING: 100% WOOLLEN SHEEPSKIN</t>
-        </is>
+          <t>32108</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CORTINA NERO</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1.544,00</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SOLE: 100% EVA (PLASTIC MATERIAL) UPPER: 100% CALF LEATHER LINING: 100% CALF LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>Country of origin:</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t xml:space="preserve"> ITALY</t>
         </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>M6560</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>64039118</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>34/44</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>8</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>191,00</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>1.528,00</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLE: 100% RUBBER UPPER: 5% PL 65% CALF LEATHER 21% PU 5% PES 4% COT LINING:90% LAMB LEATHER 10% GOAT LEATHER</t>
+          <t>MEN'S SHOES</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Country of origin:</t>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>32109</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ITALY</t>
-        </is>
+          <t>CORTINA  NERO L.NERO</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1.302,00</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>M6562</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>64039118</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>34/44</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>8</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>199,00</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>1.592,00</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+          <t>SOLE: 100% EVA UPPER: 70% CALF LEATHER 30% EA LINING: 100% CALF LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Country of origin:</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ITALY</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>32143</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1.302,00</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
         <v>80</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>SOLE: 100% RUBBER UPPER:  95% CALF LEATHER 5 % PL LINING: 80% LAMB LEATHER 20% GOAT LEATHER</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>Country of origin:</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ITALY</t>
-        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>M6563</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>64039118</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>34/44</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>8</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>211,00</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>1.688,00</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+          <t>SOLE: 100% EVA UPPER: 70% CALF LEATHER 30% EA LINING: 100% CALF LEATHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>Country of origin:</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ITALY</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>32143</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1.302,00</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
         <v>80</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>SOLE: 100% RUBBER UPPER:5% PL 65% CALF LEATHER 29% PA 1% PU LINING: 90% LAMB LEATHER 10% GOAT LEATHER</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>Country of origin:</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ITALY</t>
-        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>M6563</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>64039118</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>34/44</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>6</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>211,00</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>1.266,00</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>80</v>
+          <t>SOLE: 100% EVA UPPER: 70% CALF LEATHER 30% EA LINING: 100% CALF LEATHER</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>SOLE: 100% RUBBER UPPER: 5% PL 65% BUFFALO LEATHER 29% PA 1% PU LINING 90% LAMB LEATHER 10% GOAT LEATHER</t>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Country of origin:</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ITALY</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Country of origin:</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ITALY</t>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MEN'S ANKLE BOOTS</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>M6577</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>64039118</t>
-        </is>
-      </c>
       <c r="C34" t="inlineStr">
-        <is>
-          <t>34/44</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>10</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>225,00</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>2.250,00</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="G35" t="inlineStr">
         <is>
           <t>-7.306,43</t>
         </is>
